--- a/data/pca/factorExposure/factorExposure_2017-12-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +720,82 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.005759371321928869</v>
+        <v>0.01193690042476705</v>
       </c>
       <c r="C2">
-        <v>-0.01144999156401008</v>
+        <v>0.03854492427147384</v>
       </c>
       <c r="D2">
-        <v>-0.002642153404499494</v>
+        <v>-0.02868411151425456</v>
       </c>
       <c r="E2">
-        <v>-0.01974779147553316</v>
+        <v>-0.02829299064459651</v>
       </c>
       <c r="F2">
-        <v>0.05512235491702695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.0340982897503332</v>
+      </c>
+      <c r="G2">
+        <v>0.01364064561725655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05220011439774634</v>
+        <v>0.05799936336923493</v>
       </c>
       <c r="C3">
-        <v>-0.04479982378202704</v>
+        <v>0.07903514251556878</v>
       </c>
       <c r="D3">
-        <v>-0.003218404069774531</v>
+        <v>-0.01434060147588979</v>
       </c>
       <c r="E3">
-        <v>0.03637643363917743</v>
+        <v>-0.08171223504086698</v>
       </c>
       <c r="F3">
-        <v>0.2417281667449021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.05952564172567584</v>
+      </c>
+      <c r="G3">
+        <v>0.06925243253667622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.03161316937526666</v>
+        <v>0.05494294190149366</v>
       </c>
       <c r="C4">
-        <v>-0.01928314938551062</v>
+        <v>0.06217051949096511</v>
       </c>
       <c r="D4">
-        <v>0.0246784451457119</v>
+        <v>-0.02217278690197223</v>
       </c>
       <c r="E4">
-        <v>-0.04343907812586349</v>
+        <v>-0.002181638162185658</v>
       </c>
       <c r="F4">
-        <v>0.03617276625832835</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.01759039843284594</v>
+      </c>
+      <c r="G4">
+        <v>0.04153865805683597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +812,220 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03752780753149498</v>
+        <v>0.03223431627690748</v>
       </c>
       <c r="C6">
-        <v>-0.03610198815062315</v>
+        <v>0.05662091984255475</v>
       </c>
       <c r="D6">
-        <v>0.01505178874368969</v>
+        <v>-0.01613961962729012</v>
       </c>
       <c r="E6">
-        <v>-0.06503114530410012</v>
+        <v>-0.005290707831768909</v>
       </c>
       <c r="F6">
-        <v>0.03662608528276708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01559497895932364</v>
+      </c>
+      <c r="G6">
+        <v>0.0229039825107627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0170605364588379</v>
+        <v>0.01772353085197559</v>
       </c>
       <c r="C7">
-        <v>-0.02892807636493319</v>
+        <v>0.03805738626750265</v>
       </c>
       <c r="D7">
-        <v>0.06716453868426796</v>
+        <v>-0.01261835552422135</v>
       </c>
       <c r="E7">
-        <v>0.005889919009696827</v>
+        <v>0.01373036792956659</v>
       </c>
       <c r="F7">
-        <v>0.00710815616701055</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.01185173529976628</v>
+      </c>
+      <c r="G7">
+        <v>0.0756756871645987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0151498511247851</v>
+        <v>-0.005073691157033165</v>
       </c>
       <c r="C8">
-        <v>0.00874017717664026</v>
+        <v>0.01298545103538271</v>
       </c>
       <c r="D8">
-        <v>0.01510912035345217</v>
+        <v>-0.003952406801333913</v>
       </c>
       <c r="E8">
-        <v>-0.02270101837109187</v>
+        <v>-0.0151582652856987</v>
       </c>
       <c r="F8">
-        <v>0.01932823400960382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02515112334374014</v>
+      </c>
+      <c r="G8">
+        <v>0.02597584020407629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02377932789071109</v>
+        <v>0.02794955233940623</v>
       </c>
       <c r="C9">
-        <v>-0.02212324073260732</v>
+        <v>0.04153089039318192</v>
       </c>
       <c r="D9">
-        <v>0.01407837567586709</v>
+        <v>-0.01539869340053175</v>
       </c>
       <c r="E9">
-        <v>-0.02980915348361213</v>
+        <v>-0.004527015974982697</v>
       </c>
       <c r="F9">
-        <v>0.05999075341528433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.02121685203828368</v>
+      </c>
+      <c r="G9">
+        <v>0.03269966202086099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08039122561151532</v>
+        <v>0.0856669675329932</v>
       </c>
       <c r="C10">
-        <v>-0.05091761820174646</v>
+        <v>-0.1854416415025474</v>
       </c>
       <c r="D10">
-        <v>-0.04217464623826626</v>
+        <v>0.0192348449995155</v>
       </c>
       <c r="E10">
-        <v>0.1524591989242004</v>
+        <v>-0.01715761707502518</v>
       </c>
       <c r="F10">
-        <v>0.03143788279112089</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.01230835389708341</v>
+      </c>
+      <c r="G10">
+        <v>0.03674764621033532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0100172513643794</v>
+        <v>0.0348792759317958</v>
       </c>
       <c r="C11">
-        <v>-0.02644731508899261</v>
+        <v>0.05309775776350909</v>
       </c>
       <c r="D11">
-        <v>-0.0009322925816450634</v>
+        <v>-0.001158313114438123</v>
       </c>
       <c r="E11">
-        <v>-0.04685387417303393</v>
+        <v>0.002643385367990733</v>
       </c>
       <c r="F11">
-        <v>0.01577103659473084</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02640993475769294</v>
+      </c>
+      <c r="G11">
+        <v>0.01255282473602758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.01941827592449862</v>
+        <v>0.03284045302226881</v>
       </c>
       <c r="C12">
-        <v>-0.02575769345900818</v>
+        <v>0.04503873177979351</v>
       </c>
       <c r="D12">
-        <v>0.006963001415590777</v>
+        <v>-0.005515028394037014</v>
       </c>
       <c r="E12">
-        <v>-0.04444037048894606</v>
+        <v>0.008908757933000919</v>
       </c>
       <c r="F12">
-        <v>-0.008535885731546611</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.006511786857776654</v>
+      </c>
+      <c r="G12">
+        <v>0.01801429585417733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02367327861829214</v>
+        <v>0.01003378951237774</v>
       </c>
       <c r="C13">
-        <v>-0.007842867989014188</v>
+        <v>0.0330252225301038</v>
       </c>
       <c r="D13">
-        <v>0.001165156818081476</v>
+        <v>-0.02459917999489013</v>
       </c>
       <c r="E13">
-        <v>-0.02211808461289714</v>
+        <v>-0.01965147249065727</v>
       </c>
       <c r="F13">
-        <v>0.03897225146896423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02599295115308122</v>
+      </c>
+      <c r="G13">
+        <v>0.0260538664221437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007473942178721908</v>
+        <v>0.007755653204809403</v>
       </c>
       <c r="C14">
-        <v>-0.01576052964919131</v>
+        <v>0.02448804036198272</v>
       </c>
       <c r="D14">
-        <v>0.01378857214053655</v>
+        <v>-0.008392967022883674</v>
       </c>
       <c r="E14">
-        <v>-0.008797442073106409</v>
+        <v>0.005187094368429311</v>
       </c>
       <c r="F14">
-        <v>0.009548546669968896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.003754001250919053</v>
+      </c>
+      <c r="G14">
+        <v>0.03603536470167405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1042,36 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.009123240288704442</v>
+        <v>0.03117528194851954</v>
       </c>
       <c r="C16">
-        <v>-0.02713361514292422</v>
+        <v>0.04290256830350764</v>
       </c>
       <c r="D16">
-        <v>0.004778557593931304</v>
+        <v>-0.0007402553071581957</v>
       </c>
       <c r="E16">
-        <v>-0.044100100295733</v>
+        <v>0.002121309191422208</v>
       </c>
       <c r="F16">
-        <v>0.01789588155789532</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.0130677641986889</v>
+      </c>
+      <c r="G16">
+        <v>0.01652534321359066</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1088,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1111,82 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01302457324831212</v>
+        <v>0.02925712174656956</v>
       </c>
       <c r="C19">
-        <v>-0.0220126225538262</v>
+        <v>0.05420744013081785</v>
       </c>
       <c r="D19">
-        <v>0.005285841874318754</v>
+        <v>-0.01497649391317044</v>
       </c>
       <c r="E19">
-        <v>-0.03999725589326533</v>
+        <v>-0.03789502204385493</v>
       </c>
       <c r="F19">
-        <v>0.05547864509994267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.04124750205726844</v>
+      </c>
+      <c r="G19">
+        <v>0.03450255642900708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.004037148555748523</v>
+        <v>0.01040741729541684</v>
       </c>
       <c r="C20">
-        <v>-0.004943097926358739</v>
+        <v>0.03460677843258293</v>
       </c>
       <c r="D20">
-        <v>0.003456567667310888</v>
+        <v>-0.01302409770073604</v>
       </c>
       <c r="E20">
-        <v>-0.001330477586846868</v>
+        <v>-0.01973715903885568</v>
       </c>
       <c r="F20">
-        <v>0.026792077515069</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.008598741479587956</v>
+      </c>
+      <c r="G20">
+        <v>0.02745233013722913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01852937059111347</v>
+        <v>0.01244043223752907</v>
       </c>
       <c r="C21">
-        <v>-0.04040440743668172</v>
+        <v>0.03308015878199659</v>
       </c>
       <c r="D21">
-        <v>0.01985395919642981</v>
+        <v>-0.01576961612263697</v>
       </c>
       <c r="E21">
-        <v>-0.01868507576606896</v>
+        <v>-0.02663988850454348</v>
       </c>
       <c r="F21">
-        <v>0.02292505445159928</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02082315700538329</v>
+      </c>
+      <c r="G21">
+        <v>0.04968253477802158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1203,13 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,70 +1226,82 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.009043830992487149</v>
+        <v>0.02538356531198574</v>
       </c>
       <c r="C24">
-        <v>-0.02240429908411614</v>
+        <v>0.04596591143528729</v>
       </c>
       <c r="D24">
-        <v>0.00340360711022315</v>
+        <v>-0.006112401790969206</v>
       </c>
       <c r="E24">
-        <v>-0.03801393614542611</v>
+        <v>0.006480769267554119</v>
       </c>
       <c r="F24">
-        <v>0.01547269415942912</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02336598708492591</v>
+      </c>
+      <c r="G24">
+        <v>0.01582467649217595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.02403366229979575</v>
+        <v>0.04257043572079401</v>
       </c>
       <c r="C25">
-        <v>-0.02837816869770796</v>
+        <v>0.05240098936643633</v>
       </c>
       <c r="D25">
-        <v>0.001738651694143322</v>
+        <v>-0.01000423464599503</v>
       </c>
       <c r="E25">
-        <v>-0.04189216342413205</v>
+        <v>0.01353750733683539</v>
       </c>
       <c r="F25">
-        <v>0.02906401265359929</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01706271707870733</v>
+      </c>
+      <c r="G25">
+        <v>0.02176153452525091</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01408259486642456</v>
+        <v>0.007578418401543376</v>
       </c>
       <c r="C26">
-        <v>0.004302855253692378</v>
+        <v>0.007446458265008682</v>
       </c>
       <c r="D26">
-        <v>0.01079826754305217</v>
+        <v>-0.02375114450173841</v>
       </c>
       <c r="E26">
-        <v>-0.0007998788465107056</v>
+        <v>-0.008307165084736947</v>
       </c>
       <c r="F26">
-        <v>0.02861163041459057</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01005632586217839</v>
+      </c>
+      <c r="G26">
+        <v>0.02590480386272198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,150 +1318,174 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1309315362383516</v>
+        <v>0.1107323267566923</v>
       </c>
       <c r="C28">
-        <v>-0.06222754661198106</v>
+        <v>-0.2265235461479736</v>
       </c>
       <c r="D28">
-        <v>-0.05646098905164562</v>
+        <v>0.01074648551837266</v>
       </c>
       <c r="E28">
-        <v>0.2254714004020984</v>
+        <v>-0.005844917201653515</v>
       </c>
       <c r="F28">
-        <v>0.01084008248268024</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.006269259637119014</v>
+      </c>
+      <c r="G28">
+        <v>0.05274539900809169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01288386379603781</v>
+        <v>0.01242068493980815</v>
       </c>
       <c r="C29">
-        <v>-0.01202295678654653</v>
+        <v>0.01815018111557049</v>
       </c>
       <c r="D29">
-        <v>0.01054181732529292</v>
+        <v>-0.00698902494839555</v>
       </c>
       <c r="E29">
-        <v>-0.008100750747952678</v>
+        <v>0.00418105103953619</v>
       </c>
       <c r="F29">
-        <v>0.01323138424804338</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.00415680276676533</v>
+      </c>
+      <c r="G29">
+        <v>0.02940529583503556</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.0303215871770646</v>
+        <v>0.03873073404877148</v>
       </c>
       <c r="C30">
-        <v>-0.02174706259219641</v>
+        <v>0.07139640031313481</v>
       </c>
       <c r="D30">
-        <v>-0.04214558886127957</v>
+        <v>-0.02700102826733108</v>
       </c>
       <c r="E30">
-        <v>-0.08207961979522814</v>
+        <v>-0.02143595124738861</v>
       </c>
       <c r="F30">
-        <v>0.06350685735783482</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04369772721477237</v>
+      </c>
+      <c r="G30">
+        <v>-0.006478627432789487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01872056782836242</v>
+        <v>0.04456125855210377</v>
       </c>
       <c r="C31">
-        <v>-0.05254184793905094</v>
+        <v>0.02821155327179289</v>
       </c>
       <c r="D31">
-        <v>0.006573711029929074</v>
+        <v>-0.002599755809452509</v>
       </c>
       <c r="E31">
-        <v>-0.0166764005808479</v>
+        <v>0.01419652713650511</v>
       </c>
       <c r="F31">
-        <v>-0.002089058223686662</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02911020927907273</v>
+      </c>
+      <c r="G31">
+        <v>0.0289630739759769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.01165556899913587</v>
+        <v>0.004562874953442076</v>
       </c>
       <c r="C32">
-        <v>-0.0170117267663128</v>
+        <v>0.0358085395415817</v>
       </c>
       <c r="D32">
-        <v>0.02615882252073331</v>
+        <v>0.004545375927124132</v>
       </c>
       <c r="E32">
-        <v>-0.01857226571439431</v>
+        <v>-0.01963065664219771</v>
       </c>
       <c r="F32">
-        <v>0.03800064627146607</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.07425223118705267</v>
+      </c>
+      <c r="G32">
+        <v>0.05255754675641696</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01937503867532767</v>
+        <v>0.02824946851528874</v>
       </c>
       <c r="C33">
-        <v>-0.02644676841265778</v>
+        <v>0.05090381816746131</v>
       </c>
       <c r="D33">
-        <v>-0.01775374556506286</v>
+        <v>-0.01398808157206691</v>
       </c>
       <c r="E33">
-        <v>-0.03772764974074294</v>
+        <v>-0.01857027717735839</v>
       </c>
       <c r="F33">
-        <v>0.03678706227184812</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02512409250002951</v>
+      </c>
+      <c r="G33">
+        <v>0.02103620230630351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.006075391077190031</v>
+        <v>0.04536748987666098</v>
       </c>
       <c r="C34">
-        <v>-0.03317008670937419</v>
+        <v>0.0529819918904566</v>
       </c>
       <c r="D34">
-        <v>0.01137076355268663</v>
+        <v>0.006162316328254348</v>
       </c>
       <c r="E34">
-        <v>-0.04045493399025989</v>
+        <v>0.01237634991642888</v>
       </c>
       <c r="F34">
-        <v>0.01750228251412265</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02314704799066158</v>
+      </c>
+      <c r="G34">
+        <v>0.02597842185444089</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1502,36 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0165579570419918</v>
+        <v>0.01064412189071017</v>
       </c>
       <c r="C36">
-        <v>-0.009157790327086109</v>
+        <v>0.004288239172592064</v>
       </c>
       <c r="D36">
-        <v>0.004128333421548568</v>
+        <v>-0.01103414739423571</v>
       </c>
       <c r="E36">
-        <v>-0.00302435042101716</v>
+        <v>0.001392210132006135</v>
       </c>
       <c r="F36">
-        <v>0.01246350216622087</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.0008412519748958854</v>
+      </c>
+      <c r="G36">
+        <v>0.01795606757189385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1548,174 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0003211328500148337</v>
+        <v>0.03230548400398549</v>
       </c>
       <c r="C38">
-        <v>-0.03320323989593908</v>
+        <v>0.02218773565204002</v>
       </c>
       <c r="D38">
-        <v>-0.005262411580222411</v>
+        <v>0.008245169319944651</v>
       </c>
       <c r="E38">
-        <v>-0.01427912338588497</v>
+        <v>-0.001367409981380231</v>
       </c>
       <c r="F38">
-        <v>0.04615942217248761</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.008668097046994405</v>
+      </c>
+      <c r="G38">
+        <v>0.02769961163102918</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.006125680679735388</v>
+        <v>0.03033908200685898</v>
       </c>
       <c r="C39">
-        <v>-0.01740615648291749</v>
+        <v>0.08286551458516686</v>
       </c>
       <c r="D39">
-        <v>0.01616280890384439</v>
+        <v>-0.01159064650498172</v>
       </c>
       <c r="E39">
-        <v>-0.06905169996753109</v>
+        <v>-0.01035335095747961</v>
       </c>
       <c r="F39">
-        <v>0.0498126262165839</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.03986503084568623</v>
+      </c>
+      <c r="G39">
+        <v>0.01752815830283206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0169198790937821</v>
+        <v>0.01878368927159387</v>
       </c>
       <c r="C40">
-        <v>-0.02123753334829436</v>
+        <v>0.03136470903838198</v>
       </c>
       <c r="D40">
-        <v>0.0007909539002981818</v>
+        <v>-0.01293508429781218</v>
       </c>
       <c r="E40">
-        <v>-0.04271578351054154</v>
+        <v>-0.0140493283389744</v>
       </c>
       <c r="F40">
-        <v>0.03723189903291296</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02551316479017155</v>
+      </c>
+      <c r="G40">
+        <v>0.01840146381593934</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01085226563896032</v>
+        <v>0.01189496012546119</v>
       </c>
       <c r="C41">
-        <v>-0.01396495324873952</v>
+        <v>-0.002580895929328825</v>
       </c>
       <c r="D41">
-        <v>-0.004273361035262199</v>
+        <v>-0.003337229647848141</v>
       </c>
       <c r="E41">
-        <v>0.009063257024097483</v>
+        <v>0.004576516337302786</v>
       </c>
       <c r="F41">
-        <v>0.004339426834295137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.002184380483623551</v>
+      </c>
+      <c r="G41">
+        <v>0.01258941637693261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.1166905464816742</v>
+        <v>0.03760618019973954</v>
       </c>
       <c r="C42">
-        <v>-0.06801858671574286</v>
+        <v>0.05456043535332237</v>
       </c>
       <c r="D42">
-        <v>-0.09357177963251927</v>
+        <v>-0.1029384067096308</v>
       </c>
       <c r="E42">
-        <v>-0.1543456865394279</v>
+        <v>-0.06673009757334095</v>
       </c>
       <c r="F42">
-        <v>0.1935388673452</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1211199460203853</v>
+      </c>
+      <c r="G42">
+        <v>-0.2167619641352654</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01571530328219967</v>
+        <v>0.02695597551943125</v>
       </c>
       <c r="C43">
-        <v>-0.01181253357095402</v>
+        <v>0.006172595223856443</v>
       </c>
       <c r="D43">
-        <v>-0.003688119209333289</v>
+        <v>-0.003440904187972105</v>
       </c>
       <c r="E43">
-        <v>0.003667995170790636</v>
+        <v>0.001214885104635271</v>
       </c>
       <c r="F43">
-        <v>0.006784071293554631</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.003657526203072066</v>
+      </c>
+      <c r="G43">
+        <v>0.0167478141894912</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.001267289474908893</v>
+        <v>0.01650803896727261</v>
       </c>
       <c r="C44">
-        <v>-0.01259464622681216</v>
+        <v>0.04862316999583137</v>
       </c>
       <c r="D44">
-        <v>0.01238965489618365</v>
+        <v>-0.006547302161404918</v>
       </c>
       <c r="E44">
-        <v>-0.01655590463383048</v>
+        <v>-0.01894478867608804</v>
       </c>
       <c r="F44">
-        <v>0.07251746351449374</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02431446032600806</v>
+      </c>
+      <c r="G44">
+        <v>0.03179890823340761</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1732,82 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.006147294852861175</v>
+        <v>0.001480043421805773</v>
       </c>
       <c r="C46">
-        <v>-0.00789568668967265</v>
+        <v>0.01535500504042297</v>
       </c>
       <c r="D46">
-        <v>0.00716665858733736</v>
+        <v>-0.01141132145830806</v>
       </c>
       <c r="E46">
-        <v>-0.02565833992322146</v>
+        <v>0.006507628512716932</v>
       </c>
       <c r="F46">
-        <v>0.03358793126286863</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.006662809735391608</v>
+      </c>
+      <c r="G46">
+        <v>0.02218782189514874</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.03346937619493068</v>
+        <v>0.07294101594032447</v>
       </c>
       <c r="C47">
-        <v>-0.06931404041939974</v>
+        <v>0.06095561284605339</v>
       </c>
       <c r="D47">
-        <v>-0.008359015652469935</v>
+        <v>0.005234404364190739</v>
       </c>
       <c r="E47">
-        <v>-0.03368706902069459</v>
+        <v>0.0178033396284032</v>
       </c>
       <c r="F47">
-        <v>-0.03500625127076116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.05803632934329755</v>
+      </c>
+      <c r="G47">
+        <v>0.02072503932600398</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01993660893606134</v>
+        <v>0.01919257643915026</v>
       </c>
       <c r="C48">
-        <v>-0.02086135026641631</v>
+        <v>0.008476733664272833</v>
       </c>
       <c r="D48">
-        <v>0.003080991891809253</v>
+        <v>-0.0006910783960970099</v>
       </c>
       <c r="E48">
-        <v>-0.008911074306381555</v>
+        <v>0.003985555282498483</v>
       </c>
       <c r="F48">
-        <v>0.01563636576830008</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01072218499358375</v>
+      </c>
+      <c r="G48">
+        <v>0.02246611947639446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1824,59 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03096140769047942</v>
+        <v>0.07604392103057583</v>
       </c>
       <c r="C50">
-        <v>-0.07655459438330424</v>
+        <v>0.06241005483684983</v>
       </c>
       <c r="D50">
-        <v>0.02327742049977826</v>
+        <v>0.003874298190398617</v>
       </c>
       <c r="E50">
-        <v>-0.04553332544511417</v>
+        <v>0.01794070891459223</v>
       </c>
       <c r="F50">
-        <v>-0.01416636582876183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.05504939021889477</v>
+      </c>
+      <c r="G50">
+        <v>0.0449754717406005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01114351766494306</v>
+        <v>0.01694293747037553</v>
       </c>
       <c r="C51">
-        <v>-0.004891450949580952</v>
+        <v>0.02745738331560751</v>
       </c>
       <c r="D51">
-        <v>0.009570362953247136</v>
+        <v>-0.008699292384125298</v>
       </c>
       <c r="E51">
-        <v>0.01867252520410122</v>
+        <v>-0.008726803954419214</v>
       </c>
       <c r="F51">
-        <v>0.05657482007151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03861229903186635</v>
+      </c>
+      <c r="G51">
+        <v>0.0400582630990533</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +1893,220 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.04780982558521551</v>
+        <v>0.09675018533394013</v>
       </c>
       <c r="C53">
-        <v>-0.08273757270408501</v>
+        <v>0.0752101970449935</v>
       </c>
       <c r="D53">
-        <v>0.01098581422346884</v>
+        <v>0.006373732352944863</v>
       </c>
       <c r="E53">
-        <v>-0.06435828793271918</v>
+        <v>0.04318673713761689</v>
       </c>
       <c r="F53">
-        <v>-0.06013453694276526</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06327990054473724</v>
+      </c>
+      <c r="G53">
+        <v>0.0213888568054726</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01377135492644796</v>
+        <v>0.02867088537592254</v>
       </c>
       <c r="C54">
-        <v>-0.0288431837182547</v>
+        <v>0.003800257721021185</v>
       </c>
       <c r="D54">
-        <v>0.004092593922531414</v>
+        <v>0.004408875837558264</v>
       </c>
       <c r="E54">
-        <v>-0.002842477102315957</v>
+        <v>-0.001968159237272287</v>
       </c>
       <c r="F54">
-        <v>0.0007911419794169481</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.001350264872124874</v>
+      </c>
+      <c r="G54">
+        <v>0.02864222207929461</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.02926777334227054</v>
+        <v>0.07420675385666914</v>
       </c>
       <c r="C55">
-        <v>-0.0721902774106061</v>
+        <v>0.06810472850331731</v>
       </c>
       <c r="D55">
-        <v>0.001211188557939079</v>
+        <v>0.005298818415035335</v>
       </c>
       <c r="E55">
-        <v>-0.06965659094120659</v>
+        <v>0.03011129519147574</v>
       </c>
       <c r="F55">
-        <v>-0.04289538623565632</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.05685228581872689</v>
+      </c>
+      <c r="G55">
+        <v>0.009985630991172766</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.07630268781334472</v>
+        <v>0.1483941633168986</v>
       </c>
       <c r="C56">
-        <v>-0.1134200073347048</v>
+        <v>0.09770033163760959</v>
       </c>
       <c r="D56">
-        <v>0.0004612640810634545</v>
+        <v>0.01558862391372967</v>
       </c>
       <c r="E56">
-        <v>-0.0899862154474963</v>
+        <v>0.04996721743534045</v>
       </c>
       <c r="F56">
-        <v>-0.08939631462070172</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.1027088925342122</v>
+      </c>
+      <c r="G56">
+        <v>-0.001905618063283023</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.04542998362985249</v>
+        <v>0.01334409770565238</v>
       </c>
       <c r="C57">
-        <v>-0.007745594980249693</v>
+        <v>0.01179996667296923</v>
       </c>
       <c r="D57">
-        <v>0.004256335324590779</v>
+        <v>-0.02369780734282461</v>
       </c>
       <c r="E57">
-        <v>-0.03504001351041144</v>
+        <v>-0.02973019315636442</v>
       </c>
       <c r="F57">
-        <v>0.03821731555555703</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.01360399812931006</v>
+      </c>
+      <c r="G57">
+        <v>0.02186165597295066</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.1010581883327885</v>
+        <v>0.06777843832805464</v>
       </c>
       <c r="C58">
-        <v>-0.07105445861118632</v>
+        <v>0.06645643074509519</v>
       </c>
       <c r="D58">
-        <v>-0.1118390213645244</v>
+        <v>-0.01919091136061545</v>
       </c>
       <c r="E58">
-        <v>-0.1463318058580766</v>
+        <v>-0.9334022806150187</v>
       </c>
       <c r="F58">
-        <v>0.5163774580667465</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.277803590633172</v>
+      </c>
+      <c r="G58">
+        <v>0.05837410755429938</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1362393001188261</v>
+        <v>0.1496178959500071</v>
       </c>
       <c r="C59">
-        <v>-0.0586914238010518</v>
+        <v>-0.2157380419025368</v>
       </c>
       <c r="D59">
-        <v>-0.07620721796527835</v>
+        <v>0.01804230053956095</v>
       </c>
       <c r="E59">
-        <v>0.1886991353293175</v>
+        <v>-0.01520178555449462</v>
       </c>
       <c r="F59">
-        <v>0.05115806012052238</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01113747160035668</v>
+      </c>
+      <c r="G59">
+        <v>0.01740432911139818</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1561264045389428</v>
+        <v>0.2949116124064826</v>
       </c>
       <c r="C60">
-        <v>-0.1227335099960973</v>
+        <v>0.0826094853711303</v>
       </c>
       <c r="D60">
-        <v>-0.05212675842568107</v>
+        <v>-0.006574362506151919</v>
       </c>
       <c r="E60">
-        <v>-0.05602186463212152</v>
+        <v>-0.04525417679775076</v>
       </c>
       <c r="F60">
-        <v>0.2118155830728574</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3791445506356878</v>
+      </c>
+      <c r="G60">
+        <v>-0.05962974180964072</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.0156019122282638</v>
+        <v>0.0306844862426776</v>
       </c>
       <c r="C61">
-        <v>-0.02773727023269294</v>
+        <v>0.06362292800227121</v>
       </c>
       <c r="D61">
-        <v>0.00598230067533449</v>
+        <v>-0.004974370047860844</v>
       </c>
       <c r="E61">
-        <v>-0.06005567452363345</v>
+        <v>-0.005398382426796014</v>
       </c>
       <c r="F61">
-        <v>0.03141380653026832</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02598278319128588</v>
+      </c>
+      <c r="G61">
+        <v>0.01872291028528583</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2123,174 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007628240322153492</v>
+        <v>0.01346471910412565</v>
       </c>
       <c r="C63">
-        <v>-0.01701559636528766</v>
+        <v>0.02632424897421325</v>
       </c>
       <c r="D63">
-        <v>0.00641266151187038</v>
+        <v>-0.007535486061475112</v>
       </c>
       <c r="E63">
-        <v>-0.02031090519367333</v>
+        <v>0.01546400627310603</v>
       </c>
       <c r="F63">
-        <v>-0.00260935236259422</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.009364619845905793</v>
+      </c>
+      <c r="G63">
+        <v>0.02711994259031956</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.0221128078913851</v>
+        <v>0.04662640385764165</v>
       </c>
       <c r="C64">
-        <v>-0.04381190451823053</v>
+        <v>0.03477913331691636</v>
       </c>
       <c r="D64">
-        <v>0.0003194121602433777</v>
+        <v>-0.004454414557235607</v>
       </c>
       <c r="E64">
-        <v>-0.04301410805799527</v>
+        <v>0.01037724349451689</v>
       </c>
       <c r="F64">
-        <v>0.01793674177533078</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.01740452148556681</v>
+      </c>
+      <c r="G64">
+        <v>0.0170955415950804</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0421485019864296</v>
+        <v>0.07944435734805415</v>
       </c>
       <c r="C65">
-        <v>-0.04266027630529482</v>
+        <v>0.06668048775076631</v>
       </c>
       <c r="D65">
-        <v>0.01377795534837577</v>
+        <v>-0.01493370642654501</v>
       </c>
       <c r="E65">
-        <v>-0.06872787793753808</v>
+        <v>-0.00391700086332581</v>
       </c>
       <c r="F65">
-        <v>0.03378685362878745</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03964962422736735</v>
+      </c>
+      <c r="G65">
+        <v>0.01136180547111183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.01518046099863094</v>
+        <v>0.05317528663261694</v>
       </c>
       <c r="C66">
-        <v>-0.03494808223454396</v>
+        <v>0.1162345419819417</v>
       </c>
       <c r="D66">
-        <v>-0.003363568232138111</v>
+        <v>-0.01071909373986088</v>
       </c>
       <c r="E66">
-        <v>-0.09280339233271617</v>
+        <v>-0.01387338489873015</v>
       </c>
       <c r="F66">
-        <v>0.03286003007528818</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.04716196476341456</v>
+      </c>
+      <c r="G66">
+        <v>0.007304723362704253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.01754708163533857</v>
+        <v>0.0573419686707116</v>
       </c>
       <c r="C67">
-        <v>-0.04124932021944856</v>
+        <v>0.0248502788275093</v>
       </c>
       <c r="D67">
-        <v>-0.007989648796221355</v>
+        <v>0.00708628768792972</v>
       </c>
       <c r="E67">
-        <v>-0.01737880979890475</v>
+        <v>0.00530650220092623</v>
       </c>
       <c r="F67">
-        <v>0.02890823302986223</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.006834554889928059</v>
+      </c>
+      <c r="G67">
+        <v>0.02739461292447068</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1383337746949908</v>
+        <v>0.1242121115310486</v>
       </c>
       <c r="C68">
-        <v>-0.03569984662074586</v>
+        <v>-0.2705680701220812</v>
       </c>
       <c r="D68">
-        <v>-0.06491256665459723</v>
+        <v>-0.0005703913988481002</v>
       </c>
       <c r="E68">
-        <v>0.2003345159897238</v>
+        <v>-0.01513860046716372</v>
       </c>
       <c r="F68">
-        <v>0.01558567784699587</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01403414641105716</v>
+      </c>
+      <c r="G68">
+        <v>0.0216659044018437</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0199808822275465</v>
+        <v>0.07637882881257617</v>
       </c>
       <c r="C69">
-        <v>-0.06289912771056352</v>
+        <v>0.05902181078779974</v>
       </c>
       <c r="D69">
-        <v>-0.004973368815820181</v>
+        <v>0.009671567984508321</v>
       </c>
       <c r="E69">
-        <v>-0.03735562877807289</v>
+        <v>0.03277253098895906</v>
       </c>
       <c r="F69">
-        <v>-0.02594486507042586</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.03395433572598192</v>
+      </c>
+      <c r="G69">
+        <v>0.01797046758159222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2307,197 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1182712722621418</v>
+        <v>0.1248293087308833</v>
       </c>
       <c r="C71">
-        <v>-0.0444704483126346</v>
+        <v>-0.2278425370315389</v>
       </c>
       <c r="D71">
-        <v>-0.05105587085625399</v>
+        <v>0.008208357385519343</v>
       </c>
       <c r="E71">
-        <v>0.1939949546059477</v>
+        <v>-0.02344817347672818</v>
       </c>
       <c r="F71">
-        <v>0.02762654753111587</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02006783465830267</v>
+      </c>
+      <c r="G71">
+        <v>0.03598505799872066</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.04302286375597656</v>
+        <v>0.08336438358839322</v>
       </c>
       <c r="C72">
-        <v>-0.1265038088545893</v>
+        <v>0.08021258422574459</v>
       </c>
       <c r="D72">
-        <v>-0.01307086372590249</v>
+        <v>0.009169742969423749</v>
       </c>
       <c r="E72">
-        <v>-0.1406783141920122</v>
+        <v>0.01395439735136856</v>
       </c>
       <c r="F72">
-        <v>0.1529512409571959</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.043794397849534</v>
+      </c>
+      <c r="G72">
+        <v>-0.003775593935670053</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1760134765686504</v>
+        <v>0.4062360824209561</v>
       </c>
       <c r="C73">
-        <v>-0.1523642196178953</v>
+        <v>0.1005547793073099</v>
       </c>
       <c r="D73">
-        <v>-0.1057827907975465</v>
+        <v>-0.01047440548162889</v>
       </c>
       <c r="E73">
-        <v>-0.1123436674275626</v>
+        <v>-0.09883588910332411</v>
       </c>
       <c r="F73">
-        <v>0.2879232248828124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.5213541951247336</v>
+      </c>
+      <c r="G73">
+        <v>-0.1192344600563839</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.05915470596028276</v>
+        <v>0.1183461014415688</v>
       </c>
       <c r="C74">
-        <v>-0.1165461507845012</v>
+        <v>0.113986936976946</v>
       </c>
       <c r="D74">
-        <v>-0.01221776005813695</v>
+        <v>0.01130994857515674</v>
       </c>
       <c r="E74">
-        <v>-0.09143468977585398</v>
+        <v>0.04078300939194312</v>
       </c>
       <c r="F74">
-        <v>-0.08186572453932692</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06957874220719341</v>
+      </c>
+      <c r="G74">
+        <v>0.01496824482629683</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1388983382454692</v>
+        <v>0.2630965369682417</v>
       </c>
       <c r="C75">
-        <v>-0.2044276244688114</v>
+        <v>0.1421257578669666</v>
       </c>
       <c r="D75">
-        <v>-0.02489047045596984</v>
+        <v>0.03292894051048432</v>
       </c>
       <c r="E75">
-        <v>-0.1481034008599433</v>
+        <v>0.07978011770142689</v>
       </c>
       <c r="F75">
-        <v>-0.1582926544303569</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.2240342942038124</v>
+      </c>
+      <c r="G75">
+        <v>-0.03530303484780577</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1110794566976014</v>
+        <v>0.1425953220259057</v>
       </c>
       <c r="C76">
-        <v>-0.2081797229756776</v>
+        <v>0.1194400597107679</v>
       </c>
       <c r="D76">
-        <v>-0.002969347299788349</v>
+        <v>0.02333196161348914</v>
       </c>
       <c r="E76">
-        <v>-0.1521761152328115</v>
+        <v>0.07711317130407747</v>
       </c>
       <c r="F76">
-        <v>-0.2270499571309235</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1394638114423456</v>
+      </c>
+      <c r="G76">
+        <v>0.004197460115479702</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.02807115044851328</v>
+        <v>0.06156459085431354</v>
       </c>
       <c r="C77">
-        <v>-0.02371151549418152</v>
+        <v>0.0590497820111277</v>
       </c>
       <c r="D77">
-        <v>0.008221693434307143</v>
+        <v>-0.01180645962994346</v>
       </c>
       <c r="E77">
-        <v>-0.05764974105023308</v>
+        <v>-0.0364599647060898</v>
       </c>
       <c r="F77">
-        <v>0.05994426640791322</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.02151505557376051</v>
+      </c>
+      <c r="G77">
+        <v>0.04094769601836993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.02090385398011183</v>
+        <v>0.04155952966764225</v>
       </c>
       <c r="C78">
-        <v>-0.01672929044255544</v>
+        <v>0.05257459463118653</v>
       </c>
       <c r="D78">
-        <v>0.01349516405607638</v>
+        <v>-0.005303421528150377</v>
       </c>
       <c r="E78">
-        <v>-0.050288575105305</v>
+        <v>-0.0204799746759946</v>
       </c>
       <c r="F78">
-        <v>0.06233440339964334</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04151685984492126</v>
+      </c>
+      <c r="G78">
+        <v>0.03013052689240962</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2514,105 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0777089496508996</v>
+        <v>0.06570558778749799</v>
       </c>
       <c r="C80">
-        <v>-0.3299646025924187</v>
+        <v>0.07666412886483734</v>
       </c>
       <c r="D80">
-        <v>0.889418842495689</v>
+        <v>-0.01338142904907047</v>
       </c>
       <c r="E80">
-        <v>0.2095459654788888</v>
+        <v>0.06430357354414029</v>
       </c>
       <c r="F80">
-        <v>0.1129196720479162</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.01915373267591039</v>
+      </c>
+      <c r="G80">
+        <v>0.918672329370978</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.09631018518151048</v>
+        <v>0.1479227964950807</v>
       </c>
       <c r="C81">
-        <v>-0.1593894026461606</v>
+        <v>0.09056165367773973</v>
       </c>
       <c r="D81">
-        <v>-0.006802761268879446</v>
+        <v>0.01778290898744824</v>
       </c>
       <c r="E81">
-        <v>-0.1099365754200726</v>
+        <v>0.05401355943115789</v>
       </c>
       <c r="F81">
-        <v>-0.1216241087505212</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1368122668798957</v>
+      </c>
+      <c r="G81">
+        <v>0.007299159413121379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.04199272678306594</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03260419754751452</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002330848730130195</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.02079381109592789</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.003060764087286322</v>
+      </c>
+      <c r="G82">
+        <v>-0.004971158098995754</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.02361421862500624</v>
+        <v>0.02999106577381794</v>
       </c>
       <c r="C83">
-        <v>-0.02750281280026029</v>
+        <v>0.01903578530608344</v>
       </c>
       <c r="D83">
-        <v>-0.005218310024508023</v>
+        <v>-0.004955197910710283</v>
       </c>
       <c r="E83">
-        <v>-0.01552151843636883</v>
+        <v>-0.02713530667957399</v>
       </c>
       <c r="F83">
-        <v>0.04823292475331954</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.02151907209688546</v>
+      </c>
+      <c r="G83">
+        <v>0.02706125294825232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2629,266 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1343375901446647</v>
+        <v>0.2416093014285265</v>
       </c>
       <c r="C85">
-        <v>-0.1815120068502617</v>
+        <v>0.1482127554987658</v>
       </c>
       <c r="D85">
-        <v>-0.02162982029593579</v>
+        <v>0.02155104783505332</v>
       </c>
       <c r="E85">
-        <v>-0.1867636788098497</v>
+        <v>0.1207613381214068</v>
       </c>
       <c r="F85">
-        <v>-0.1665062221131393</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.2129998387171157</v>
+      </c>
+      <c r="G85">
+        <v>-0.05949901948399745</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01593655836667704</v>
+        <v>0.009876378131865858</v>
       </c>
       <c r="C86">
-        <v>-0.03758263458821529</v>
+        <v>0.02223588115029665</v>
       </c>
       <c r="D86">
-        <v>0.001285521933064241</v>
+        <v>-0.009767229999730592</v>
       </c>
       <c r="E86">
-        <v>-0.01754283897285076</v>
+        <v>-0.02069806036608167</v>
       </c>
       <c r="F86">
-        <v>0.06153006770358012</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02506124815653463</v>
+      </c>
+      <c r="G86">
+        <v>0.05394738775825141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.0122828573097206</v>
+        <v>0.01695895270969307</v>
       </c>
       <c r="C87">
-        <v>-0.02281721532688653</v>
+        <v>0.02631009518483481</v>
       </c>
       <c r="D87">
-        <v>0.007429361337060885</v>
+        <v>-0.01129850665612643</v>
       </c>
       <c r="E87">
-        <v>-0.0337886622711522</v>
+        <v>-0.07994172769752865</v>
       </c>
       <c r="F87">
-        <v>0.1069770904344063</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.05754401118004772</v>
+      </c>
+      <c r="G87">
+        <v>0.03920066456036764</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.03606324975665995</v>
+        <v>0.08839329413957837</v>
       </c>
       <c r="C88">
-        <v>-0.04159230344014415</v>
+        <v>0.05136611331290756</v>
       </c>
       <c r="D88">
-        <v>-0.0129446620254502</v>
+        <v>-0.02079841777416714</v>
       </c>
       <c r="E88">
-        <v>-0.01453491957073719</v>
+        <v>0.007439604816150656</v>
       </c>
       <c r="F88">
-        <v>0.006649624543599661</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.005942354345386467</v>
+      </c>
+      <c r="G88">
+        <v>0.02445450678564055</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.243615455537327</v>
+        <v>0.2150191616711591</v>
       </c>
       <c r="C89">
-        <v>-0.07469578609779091</v>
+        <v>-0.3769531954436333</v>
       </c>
       <c r="D89">
-        <v>-0.1338272506783244</v>
+        <v>0.01103986094704202</v>
       </c>
       <c r="E89">
-        <v>0.3479658946756936</v>
+        <v>0.01735508843595122</v>
       </c>
       <c r="F89">
-        <v>0.001765357094051597</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02691105493759419</v>
+      </c>
+      <c r="G89">
+        <v>0.02743907343014903</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1629359064941779</v>
+        <v>0.1784557520321334</v>
       </c>
       <c r="C90">
-        <v>-0.02937382055810826</v>
+        <v>-0.3388518012810673</v>
       </c>
       <c r="D90">
-        <v>-0.1073474629492464</v>
+        <v>0.01308526591771467</v>
       </c>
       <c r="E90">
-        <v>0.2833326377259672</v>
+        <v>-0.0005207222527401607</v>
       </c>
       <c r="F90">
-        <v>-0.05116548462197265</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.04158578903753161</v>
+      </c>
+      <c r="G90">
+        <v>0.003643121966308494</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1266679749132178</v>
+        <v>0.2155353708125884</v>
       </c>
       <c r="C91">
-        <v>-0.220896865177572</v>
+        <v>0.1334776853076476</v>
       </c>
       <c r="D91">
-        <v>-0.03049217693958464</v>
+        <v>0.02669448105831513</v>
       </c>
       <c r="E91">
-        <v>-0.1802943728246884</v>
+        <v>0.0957137592336819</v>
       </c>
       <c r="F91">
-        <v>-0.2358685316994623</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1881709063280965</v>
+      </c>
+      <c r="G91">
+        <v>-0.01452978457098563</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.216555632186468</v>
+        <v>0.2096218941894831</v>
       </c>
       <c r="C92">
-        <v>-0.1854305255175343</v>
+        <v>-0.2730980050379044</v>
       </c>
       <c r="D92">
-        <v>-0.1319403308303833</v>
+        <v>0.05688862067636143</v>
       </c>
       <c r="E92">
-        <v>0.2649197857001584</v>
+        <v>0.01345568338962461</v>
       </c>
       <c r="F92">
-        <v>-0.1507759074256129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1357360952584503</v>
+      </c>
+      <c r="G92">
+        <v>0.05912206120055982</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2060586595757452</v>
+        <v>0.2016919971685885</v>
       </c>
       <c r="C93">
-        <v>-0.07087682329574063</v>
+        <v>-0.3356456695938083</v>
       </c>
       <c r="D93">
-        <v>-0.1491298162110745</v>
+        <v>0.01989658300638046</v>
       </c>
       <c r="E93">
-        <v>0.3358323295612726</v>
+        <v>-0.01179208498616824</v>
       </c>
       <c r="F93">
-        <v>-0.001832394385710617</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01870352740721061</v>
+      </c>
+      <c r="G93">
+        <v>-0.0008618362398421313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.193042760011621</v>
+        <v>0.2835122975920178</v>
       </c>
       <c r="C94">
-        <v>-0.2225013946421265</v>
+        <v>0.1476441923241893</v>
       </c>
       <c r="D94">
-        <v>-0.06505840160079455</v>
+        <v>0.0158602327223529</v>
       </c>
       <c r="E94">
-        <v>-0.1762960761826196</v>
+        <v>0.1201371569208925</v>
       </c>
       <c r="F94">
-        <v>-0.2448176017018935</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3721802768617115</v>
+      </c>
+      <c r="G94">
+        <v>-0.1196944783815702</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.03463569487585925</v>
+        <v>0.08123890255310576</v>
       </c>
       <c r="C95">
-        <v>-0.08345492827245968</v>
+        <v>0.07508894478409418</v>
       </c>
       <c r="D95">
-        <v>-0.09345518096452833</v>
+        <v>0.008001369729158473</v>
       </c>
       <c r="E95">
-        <v>-0.04863123971268607</v>
+        <v>-0.08307537405072682</v>
       </c>
       <c r="F95">
-        <v>0.01609146307117434</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1548585627035456</v>
+      </c>
+      <c r="G95">
+        <v>-0.06833928635185144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +2905,13 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +2928,36 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1395722265450239</v>
+        <v>0.2149558287205813</v>
       </c>
       <c r="C98">
-        <v>-0.1351374080822347</v>
+        <v>0.04214337404777619</v>
       </c>
       <c r="D98">
-        <v>-0.0758653607921924</v>
+        <v>0.01945449719751023</v>
       </c>
       <c r="E98">
-        <v>-0.04240957776918652</v>
+        <v>-0.08289471086194275</v>
       </c>
       <c r="F98">
-        <v>0.2963537618996778</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2515341705991023</v>
+      </c>
+      <c r="G98">
+        <v>-0.03688817644798087</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +2974,13 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +2997,100 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02170549950975548</v>
+        <v>0.01388272601000622</v>
       </c>
       <c r="C101">
-        <v>-0.0196533052442982</v>
+        <v>0.01920114102381279</v>
       </c>
       <c r="D101">
-        <v>0.002191204794329822</v>
+        <v>-0.008146993122800815</v>
       </c>
       <c r="E101">
-        <v>-0.02081061383832436</v>
+        <v>-0.03378264916620587</v>
       </c>
       <c r="F101">
-        <v>0.1079941322251982</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.02559282427197895</v>
+      </c>
+      <c r="G101">
+        <v>0.03653086127391777</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.08955327339349169</v>
+        <v>0.1263272632068147</v>
       </c>
       <c r="C102">
-        <v>-0.09853270555057698</v>
+        <v>0.07758557812926044</v>
       </c>
       <c r="D102">
-        <v>-0.01161331257548021</v>
+        <v>0.000947168029212096</v>
       </c>
       <c r="E102">
-        <v>-0.08389187599887937</v>
+        <v>0.04652301979056674</v>
       </c>
       <c r="F102">
-        <v>-0.1017521932967424</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06298220873918714</v>
+      </c>
+      <c r="G102">
+        <v>-0.01511875633309914</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.01730827981284638</v>
+        <v>0.006007304923617619</v>
       </c>
       <c r="C103">
-        <v>-0.02897882792054406</v>
+        <v>0.006276866030341079</v>
       </c>
       <c r="D103">
-        <v>0.01332819014469442</v>
+        <v>-0.0003754268743988569</v>
       </c>
       <c r="E103">
-        <v>-0.02588253029176799</v>
+        <v>0.002235695146364115</v>
       </c>
       <c r="F103">
-        <v>-0.01382755086723685</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01160925209712001</v>
+      </c>
+      <c r="G103">
+        <v>0.01398483075172776</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.6960844148039635</v>
+        <v>0.04431988845957588</v>
       </c>
       <c r="C104">
-        <v>0.6353701180312084</v>
+        <v>-0.04731992988584858</v>
       </c>
       <c r="D104">
-        <v>0.2317234262376067</v>
+        <v>-0.985588933607995</v>
       </c>
       <c r="E104">
-        <v>-0.1928058299348473</v>
+        <v>0.04589577710285418</v>
       </c>
       <c r="F104">
-        <v>-0.06135325023800553</v>
+        <v>0.03658466261576748</v>
+      </c>
+      <c r="G104">
+        <v>-0.001565416135269293</v>
       </c>
     </row>
   </sheetData>
